--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 23C/PRUEBA_TEMPERATURA_23_23C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 23C/PRUEBA_TEMPERATURA_23_23C.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,100 +73,115 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-09 00:04:04</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:05:06</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:06:08</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:07:10</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:08:12</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:09:14</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:10:16</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:11:18</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:12:20</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:13:22</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:14:24</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:15:26</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:16:28</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:17:30</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:18:32</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:19:34</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:20:36</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:21:38</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:22:40</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:23:42</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:24:44</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:25:46</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:26:48</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:27:50</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:28:52</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:29:54</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:30:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:31:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:33:00</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:34:02</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:35:04</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:36:06</t>
+    <t>2023-12-12 03:20:30</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:21:30</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:22:31</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:23:32</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:24:33</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:25:34</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:26:35</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:27:36</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:28:37</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:29:38</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:30:39</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:31:40</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:32:41</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:33:42</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:34:43</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:35:44</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:36:45</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:37:46</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:38:47</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:39:48</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:40:49</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:41:50</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:42:51</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:43:52</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:44:53</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:45:54</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:46:55</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:47:56</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:48:57</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:49:58</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:50:59</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:52:00</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:53:01</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:54:02</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:55:03</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:56:04</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:57:04</t>
   </si>
 </sst>
 </file>
@@ -833,105 +848,120 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$35</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
+                  <c:v>27.377622377622401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.722027972027998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.1975524475524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.1975524475524</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>25.8041958041958</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>25.541958041958001</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.279720279720301</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>25.1486013986014</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.7552447552447</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.7552447552447</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>23.575174825174798</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.968531468531399</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>24.7552447552447</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>24.7552447552447</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.624125874125799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.361888111888099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.624125874125799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.837412587412501</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>23.181818181818102</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.493006993006901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.493006993006901</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>23.312937062936999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.312937062936999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.575174825174798</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>23.181818181818102</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="23">
                   <c:v>23.0506993006993</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="24">
+                  <c:v>24.0996503496503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.444055944055901</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.0506993006993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.312937062936999</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>23.575174825174798</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.0506993006993</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.788461538461501</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="30">
+                  <c:v>24.361888111888099</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>23.181818181818102</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.0506993006993</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.788461538461501</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23.837412587412501</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24.0996503496503</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22.788461538461501</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>22.788461538461501</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23.0506993006993</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>23.837412587412501</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>22.6573426573426</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>23.837412587412501</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22.788461538461501</c:v>
+                <c:pt idx="32">
+                  <c:v>24.230769230769202</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25.410839160839199</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.8041958041958</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26.1975524475524</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26.328671328671302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,37 +1217,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>22.919580419580399</c:v>
+                  <c:v>23.312937062936999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>23.312937062936999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.575174825174798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.0506993006993</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>24.0996503496503</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.788461538461501</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.788461538461501</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.444055944055901</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>23.0506993006993</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23.837412587412501</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.6573426573426</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.837412587412501</c:v>
+                  <c:v>23.312937062936999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.788461538461501</c:v>
+                  <c:v>23.575174825174798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,10 +1344,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>23.146058486967537</c:v>
+                  <c:v>23.372536554354692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.146058486967537</c:v>
+                  <c:v>23.372536554354692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3039,10 +3069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3088,17 +3118,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.8041958041958</v>
+        <v>27.377622377622401</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>9.3287037088884972E-3</v>
+        <v>1.2696759258687962E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3115,14 +3145,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25.541958041958001</v>
+        <v>26.722027972027998</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
-        <f>COUNT(E:E)</f>
-        <v>32</v>
+        <f>COUNT(E:E)-7</f>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3139,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.279720279720301</v>
+        <v>26.1975524475524</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3156,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.1486013986014</v>
+        <v>26.1975524475524</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3173,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.575174825174798</v>
+        <v>25.8041958041958</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3190,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.968531468531399</v>
+        <v>25.541958041958001</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3207,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>24.7552447552447</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3224,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.181818181818102</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3241,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24.493006993006901</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3258,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24.493006993006901</v>
+        <v>24.7552447552447</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3275,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.181818181818102</v>
+        <v>24.7552447552447</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3292,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>23.0506993006993</v>
+        <v>23.575174825174798</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3309,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>23.575174825174798</v>
+        <v>24.7552447552447</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3326,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.0506993006993</v>
+        <v>24.7552447552447</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3343,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>22.788461538461501</v>
+        <v>24.624125874125799</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3360,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>22.919580419580399</v>
+        <v>24.361888111888099</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3377,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.181818181818102</v>
+        <v>24.624125874125799</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3394,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.0506993006993</v>
+        <v>23.837412587412501</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3411,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>22.788461538461501</v>
+        <v>23.181818181818102</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3428,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22.919580419580399</v>
+        <v>23.312937062936999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3445,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.837412587412501</v>
+        <v>23.312937062936999</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3462,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.919580419580399</v>
+        <v>23.575174825174798</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3479,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>24.0996503496503</v>
+        <v>23.181818181818102</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3496,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.788461538461501</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3513,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>22.919580419580399</v>
+        <v>24.0996503496503</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3530,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>22.788461538461501</v>
+        <v>23.181818181818102</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3547,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>23.0506993006993</v>
+        <v>23.444055944055901</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3564,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>22.919580419580399</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3581,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>23.837412587412501</v>
+        <v>23.312937062936999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3598,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>22.6573426573426</v>
+        <v>23.575174825174798</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3615,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>23.837412587412501</v>
+        <v>24.361888111888099</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3632,7 +3662,92 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>22.788461538461501</v>
+        <v>23.181818181818102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>24.230769230769202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>23</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>25.410839160839199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>23</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>25.8041958041958</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>23</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>26.1975524475524</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>23</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>26.328671328671302</v>
       </c>
     </row>
   </sheetData>
@@ -3646,7 +3761,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3671,45 +3786,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:25:46</v>
+        <v>2023-12-12 03:39:48</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>22.919580419580399</v>
+        <v>23.312937062936999</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>23.146058486967537</v>
+        <v>23.372536554354692</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:26:48</v>
+        <v>2023-12-12 03:40:49</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>24.0996503496503</v>
+        <v>23.312937062936999</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>23.146058486967537</v>
+        <v>23.372536554354692</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:27:50</v>
+        <v>2023-12-12 03:41:50</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>22.788461538461501</v>
+        <v>23.575174825174798</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3718,35 +3833,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:28:52</v>
+        <v>2023-12-12 03:42:51</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>22.919580419580399</v>
+        <v>23.181818181818102</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.51485130273462165</v>
+        <v>0.30108068039530317</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:29:54</v>
+        <v>2023-12-12 03:43:52</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>22.788461538461501</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:30:56</v>
+        <v>2023-12-12 03:44:53</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>23.0506993006993</v>
+        <v>24.0996503496503</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3755,11 +3870,11 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:31:58</v>
+        <v>2023-12-12 03:45:54</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>22.919580419580399</v>
+        <v>23.181818181818102</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
@@ -3769,22 +3884,22 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:33:00</v>
+        <v>2023-12-12 03:46:55</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>23.837412587412501</v>
+        <v>23.444055944055901</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:34:02</v>
+        <v>2023-12-12 03:47:56</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>22.6573426573426</v>
+        <v>23.0506993006993</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3793,25 +3908,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:35:04</v>
+        <v>2023-12-12 03:48:57</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>23.837412587412501</v>
+        <v>23.312937062936999</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>22.6573426573426</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:36:06</v>
+        <v>2023-12-12 03:49:58</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>22.788461538461501</v>
+        <v>23.575174825174798</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
